--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134371.403566497</v>
+        <v>1131935.766642791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673446</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>354.0325935748024</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>31.80684691296253</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699353</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>116.8059475363014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>87.52274688849822</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9123239800305</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>249.5456553076232</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>166.8487989377354</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>194.5446484878987</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035366</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>153.2436547295167</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034049</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.2387758054552</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353055</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>13.85794957155374</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>46.62228989649819</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>112.528443452332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>74.99129529219141</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428263</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712587</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085225</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428682</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428217</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>51.36569740310195</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>78.91051008678029</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
-        <v>34.6921136716486</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.407367302545</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.444850362133</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1250.179151755383</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278357</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>662.9318377313855</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>493.9956548034786</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>343.8790153911428</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>195.9659218087497</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>195.9659218087497</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>195.9659218087497</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>844.5803025616252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3078929297407</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3078929297407</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>645.3078929297407</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1838.887733049606</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1838.887733049606</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1838.887733049606</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1549.784866175249</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1295.100377969362</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1005.683207932402</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732708</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297407</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>371.6073797998628</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>360.5753336852634</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653545</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2091.516838319883</v>
+        <v>2309.582538042864</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.554321379472</v>
+        <v>1940.620021102452</v>
       </c>
       <c r="D11" t="n">
-        <v>1364.288622772722</v>
+        <v>1582.354322495702</v>
       </c>
       <c r="E11" t="n">
-        <v>978.5003701744777</v>
+        <v>1196.566069897457</v>
       </c>
       <c r="F11" t="n">
-        <v>567.5144653848702</v>
+        <v>785.5801651078498</v>
       </c>
       <c r="G11" t="n">
         <v>371.004719437497</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469165</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469165</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386823</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420301</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878105</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765419</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687094</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856275</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882232</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234582</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234582</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234582</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="U11" t="n">
-        <v>3925.553311234582</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.490423891011</v>
+        <v>3594.490423891016</v>
       </c>
       <c r="W11" t="n">
-        <v>3241.721768620897</v>
+        <v>3241.721768620902</v>
       </c>
       <c r="X11" t="n">
-        <v>2868.256010359817</v>
+        <v>2868.256010359822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.116678384005</v>
+        <v>2478.11667838401</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550304</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469165</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792123</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376491</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843932</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282818</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279348</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>2428.043574125662</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>913.078663020285</v>
+        <v>565.0437860883919</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864302</v>
+        <v>396.107603160485</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740944</v>
+        <v>245.9909637481492</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917013</v>
+        <v>245.9909637481492</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>245.9909637481492</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469165</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600396</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888903</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542991</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551101</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551101</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551101</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551101</v>
+        <v>1739.576039203027</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.81833699139</v>
+        <v>1739.576039203027</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785503</v>
+        <v>1484.89155099714</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748542</v>
+        <v>1195.474380960179</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.727127850525</v>
+        <v>967.4848300621618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.727127850525</v>
+        <v>746.6922509186317</v>
       </c>
     </row>
     <row r="14">
@@ -5364,10 +5364,10 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1355.754362358723</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="O15" t="n">
         <v>1902.630837358917</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7074548523127</v>
+        <v>701.6502561102859</v>
       </c>
       <c r="C16" t="n">
-        <v>506.7712719244058</v>
+        <v>532.714073182379</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6546325120701</v>
+        <v>382.5974337700432</v>
       </c>
       <c r="E16" t="n">
-        <v>356.6546325120701</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519149</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5458,7 +5458,7 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
         <v>2177.3462391076</v>
@@ -5470,16 +5470,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1621.498021019034</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1332.080850982073</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958428</v>
+        <v>1104.091300084056</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523127</v>
+        <v>883.2987209405256</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098247</v>
+        <v>800.5007694647275</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819179</v>
+        <v>631.5645865368206</v>
       </c>
       <c r="D19" t="n">
-        <v>664.302781469582</v>
+        <v>631.5645865368206</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887189</v>
+        <v>483.6514929544276</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>336.7615454565173</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>169.5654461713972</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681612</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783595</v>
+        <v>1202.941813438497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>982.1492342949672</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G31" t="n">
-        <v>177.721318527045</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,7 +6631,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279802</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273906</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400764</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121696</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121696</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121696</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121696</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270495</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270448</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098232</v>
+        <v>653.7474797708862</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819155</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695797</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871866</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892763</v>
+        <v>484.8112968429794</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541323</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.78619868161</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>835.395944601126</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1051.622995973711</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>882.6868130458043</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D43" t="n">
-        <v>732.5701736334686</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E43" t="n">
-        <v>584.6570800510754</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F43" t="n">
-        <v>437.7671325531651</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G43" t="n">
-        <v>270.5710332680451</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H43" t="n">
-        <v>128.8592021102429</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>215.8850427257451</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>215.8850427257507</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238055</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114119</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>201.764089379378</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.00316636911117</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>71.36714106999938</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728907</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.5630984513775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>205.5153534273298</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>32.89260457059922</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>65.30341755403248</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303786</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194124</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864946</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194171</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038592</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>99.26785128072164</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193704</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194169</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1584408891669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="I43" t="n">
-        <v>46.57372264691692</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012207</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876409.932388695</v>
+        <v>876409.9323886954</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>423807.2415876631</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26353,7 +26353,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.712987108883681e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185136</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051403</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115265</v>
+        <v>37377.32855115304</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848978</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314479</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90354.06702314487</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26430,7 +26430,7 @@
         <v>11160.49963056816</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,7 +26439,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214692</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1054933.735640167</v>
       </c>
       <c r="C6" t="n">
-        <v>273811.0100874254</v>
+        <v>273811.0100874249</v>
       </c>
       <c r="D6" t="n">
-        <v>273811.0100874248</v>
+        <v>273811.010087425</v>
       </c>
       <c r="E6" t="n">
-        <v>183531.4689125151</v>
+        <v>183321.5046686693</v>
       </c>
       <c r="F6" t="n">
-        <v>183716.8934423209</v>
+        <v>183670.9884467562</v>
       </c>
       <c r="G6" t="n">
-        <v>340652.4965104741</v>
+        <v>340617.7585850386</v>
       </c>
       <c r="H6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="I6" t="n">
-        <v>351819.7327460529</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="J6" t="n">
-        <v>134288.5303487756</v>
+        <v>134253.7924233399</v>
       </c>
       <c r="K6" t="n">
-        <v>351819.7327460529</v>
+        <v>351784.9948206174</v>
       </c>
       <c r="L6" t="n">
-        <v>351819.7327460529</v>
+        <v>351784.9948206174</v>
       </c>
       <c r="M6" t="n">
-        <v>314442.4041949003</v>
+        <v>314407.6662694642</v>
       </c>
       <c r="N6" t="n">
-        <v>308037.3261875631</v>
+        <v>308002.5882621277</v>
       </c>
       <c r="O6" t="n">
-        <v>348796.4347688286</v>
+        <v>348761.6968433929</v>
       </c>
       <c r="P6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206174</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086455</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012558</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218317</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063526</v>
+        <v>149.986872406354</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173614</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27039,16 +27039,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063524</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173614</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063526</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173614</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.89777649745935</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>112.9481680013583</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104195</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.62801511026777</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>1.409405781549111</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.8215176834501</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>45.06210907969725</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.096538101309494e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.027018470267649e-12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148564</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307173</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726046</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216959</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857412</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898373</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294394</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615126</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895579</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951041</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.3317601847534</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188512</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969418</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596463</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783037</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202547</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735551</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845319</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147129</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431799</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205463</v>
+        <v>266.1421801896219</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407184</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780655</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190407</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.7353974569178</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619737</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550917</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263703</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050054</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916776</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570593</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929605</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826888</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765136</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1579551075595</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975237</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004031</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276241</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517087</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584685</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077526</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062431</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151083</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156553</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.495955711637</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458957</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693680936</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625137</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313796</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987355</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.907376606216</v>
+        <v>132.1677727752916</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211625</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701813</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360908</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882109</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190451</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998326</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>297.0239211855412</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831934</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
